--- a/biology/Médecine/Carcinose_péritonéale/Carcinose_péritonéale.xlsx
+++ b/biology/Médecine/Carcinose_péritonéale/Carcinose_péritonéale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carcinose_p%C3%A9riton%C3%A9ale</t>
+          <t>Carcinose_péritonéale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La carcinose péritonéale (ou plus couramment le cancer du péritoine) est un cancer de la famille des adénocarcinomes, se définissant par l'envahissement du péritoine par des tumeurs malignes secondaires.
 Des nodules cancéreux retrouvés en regard d'un primo cancer peuvent être retrouvés, il s'agira ici d'un cancer dit secondaire ou de rechute.
@@ -488,9 +500,9 @@
 les cancers de l'appareil digestif dont les cancer gastrique, cancer du côlon, cancer du rectum et le cancer du pancréas ;
 les cancers gynécologiques et principalement le cancer de l'ovaire, mais parfois aussi le cancer du sein sous sa forme de carcinome lobulaire invasif du sein ;
 les cancers pédiatriques de types Néphroblastome et Hepathoblastome.
-Le pronostic d’une carcinose péritonéale, toutes étiologies confondues, est sombre avec une survie de seulement quelques mois[1]. 
+Le pronostic d’une carcinose péritonéale, toutes étiologies confondues, est sombre avec une survie de seulement quelques mois. 
 L'aggravation se fera en général vers l'occlusion et des vomissements fécaloides. 
-L'intensité des douleurs générées par la maladie ne permet qu'une prise en charge palliative[2].
+L'intensité des douleurs générées par la maladie ne permet qu'une prise en charge palliative.
 La maladie envahit le grand épiploon, puis infiltre la graisse épiploique par de fin treillis avec des tractus hypoéchogènes en échographie et hyperdenses en tomodensitométrie le plus généralement.
 </t>
         </is>
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carcinose_p%C3%A9riton%C3%A9ale</t>
+          <t>Carcinose_péritonéale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +532,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La carcinose péritonéale se manifeste le plus souvent par les symptômes suivants :
 un gonflement rapide et incurable de l'abdomen lié à la présence d'ascite, un liquide secrété en quantité excessive par les cellules cancéreuses ;
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carcinose_p%C3%A9riton%C3%A9ale</t>
+          <t>Carcinose_péritonéale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,11 +574,13 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu'incurable et à l'évolution très rapide — dans un cadre d'études randomisées — certains patients peuvent être éligibles à plusieurs traitements selon la nature des métastases
 – une exérèse des nodules cancéreux par laparotomie peut être pratiquée ainsi que la ponction du liquide d'ascite et une mise en place d'un protocole de chimiothérapie de deuxième intention lorsqu'il s'agit d'une rechute ou cancer secondaire.
-La chimiothérapie hyperthermique intrapéritonéale (CHIP, une technique développée initialement comme traitement expérimental de la carcinose péritonéale dans le cadre du pseudomyxome péritonéal) ou par la corticothérapie[3]. De façon exceptionnelle, la chirurgie sera utilisée.
+La chimiothérapie hyperthermique intrapéritonéale (CHIP, une technique développée initialement comme traitement expérimental de la carcinose péritonéale dans le cadre du pseudomyxome péritonéal) ou par la corticothérapie. De façon exceptionnelle, la chirurgie sera utilisée.
 Pour les patients ayant de l'ascite dans l'abdomen, il est primordial pour les médecins de retirer ce liquide cancéreux par ponction avant d'appliquer la chimiothérapie palliative.
 Selon trois études américaines, il semblerait qu'investir 850 000 $ dans des traitements permettrait de sextupler l'espérance de vie à la suite de l'apparition d'une carcinose péritonéale, prolongeant ainsi jusqu'à 24 mois la survie du patient. Du reste, le professeur Marc-André Reymond a créé en 2013 en Allemagne, une chimiothérapie intrapéritonéale pressurisée par aérosol, nommée PIPAC. Cette chimiothérapie a l'avantage d'être efficiente en doses d'injection et d'améliorer la fin de vie du patient consécutive à l'apparition du cancer du péritoine.
 </t>
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carcinose_p%C3%A9riton%C3%A9ale</t>
+          <t>Carcinose_péritonéale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La carcinose péritonéale est une maladie rare, touchant environ 200 personnes par an en France[réf. nécessaire].
 </t>
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carcinose_p%C3%A9riton%C3%A9ale</t>
+          <t>Carcinose_péritonéale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,9 +644,11 @@
           <t>Personnalités victimes de la maladie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Jean-Luc Delarue (1964-2012), animateur et producteur de télévision[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jean-Luc Delarue (1964-2012), animateur et producteur de télévision.
 Mylène Demongeot (1935-2022), actrice française.</t>
         </is>
       </c>
